--- a/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_POS_frequency.xlsx
+++ b/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_POS_frequency.xlsx
@@ -11,18 +11,19 @@
     <sheet name="2010" sheetId="2" r:id="rId2"/>
     <sheet name="2013" sheetId="3" r:id="rId3"/>
     <sheet name="2014" sheetId="4" r:id="rId4"/>
-    <sheet name="2016" sheetId="5" r:id="rId5"/>
-    <sheet name="2017" sheetId="6" r:id="rId6"/>
-    <sheet name="2018" sheetId="7" r:id="rId7"/>
-    <sheet name="counts" sheetId="8" r:id="rId8"/>
-    <sheet name="proportions" sheetId="9" r:id="rId9"/>
+    <sheet name="2015" sheetId="5" r:id="rId5"/>
+    <sheet name="2016" sheetId="6" r:id="rId6"/>
+    <sheet name="2017" sheetId="7" r:id="rId7"/>
+    <sheet name="2018" sheetId="8" r:id="rId8"/>
+    <sheet name="counts" sheetId="9" r:id="rId9"/>
+    <sheet name="proportions" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="22">
   <si>
     <t>count</t>
   </si>
@@ -643,6 +644,496 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B2">
+        <v>0.1787072243346008</v>
+      </c>
+      <c r="C2">
+        <v>0.1452471482889734</v>
+      </c>
+      <c r="D2">
+        <v>0.1079847908745247</v>
+      </c>
+      <c r="E2">
+        <v>0.07604562737642585</v>
+      </c>
+      <c r="F2">
+        <v>0.06996197718631179</v>
+      </c>
+      <c r="G2">
+        <v>0.06083650190114068</v>
+      </c>
+      <c r="H2">
+        <v>0.05399239543726236</v>
+      </c>
+      <c r="I2">
+        <v>0.05247148288973384</v>
+      </c>
+      <c r="J2">
+        <v>0.04942965779467681</v>
+      </c>
+      <c r="K2">
+        <v>0.03954372623574144</v>
+      </c>
+      <c r="L2">
+        <v>0.03574144486692015</v>
+      </c>
+      <c r="M2">
+        <v>0.03193916349809886</v>
+      </c>
+      <c r="N2">
+        <v>0.02965779467680608</v>
+      </c>
+      <c r="O2">
+        <v>0.02813688212927757</v>
+      </c>
+      <c r="P2">
+        <v>0.02053231939163498</v>
+      </c>
+      <c r="Q2">
+        <v>0.01977186311787072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B3">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C3">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="N3">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B4">
+        <v>0.1760722347629797</v>
+      </c>
+      <c r="C4">
+        <v>0.1309255079006772</v>
+      </c>
+      <c r="D4">
+        <v>0.09932279909706546</v>
+      </c>
+      <c r="E4">
+        <v>0.08126410835214447</v>
+      </c>
+      <c r="F4">
+        <v>0.0564334085778781</v>
+      </c>
+      <c r="G4">
+        <v>0.1060948081264108</v>
+      </c>
+      <c r="H4">
+        <v>0.04514672686230248</v>
+      </c>
+      <c r="I4">
+        <v>0.05869074492099323</v>
+      </c>
+      <c r="J4">
+        <v>0.06320541760722348</v>
+      </c>
+      <c r="K4">
+        <v>0.04288939051918736</v>
+      </c>
+      <c r="L4">
+        <v>0.002257336343115124</v>
+      </c>
+      <c r="M4">
+        <v>0.02934537246049661</v>
+      </c>
+      <c r="N4">
+        <v>0.03160270880361174</v>
+      </c>
+      <c r="O4">
+        <v>0.03160270880361174</v>
+      </c>
+      <c r="P4">
+        <v>0.02031602708803612</v>
+      </c>
+      <c r="Q4">
+        <v>0.009029345372460496</v>
+      </c>
+      <c r="R4">
+        <v>0.009029345372460496</v>
+      </c>
+      <c r="S4">
+        <v>0.006772009029345372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B5">
+        <v>0.1492537313432836</v>
+      </c>
+      <c r="C5">
+        <v>0.1305970149253731</v>
+      </c>
+      <c r="D5">
+        <v>0.1119402985074627</v>
+      </c>
+      <c r="E5">
+        <v>0.09701492537313433</v>
+      </c>
+      <c r="F5">
+        <v>0.05223880597014925</v>
+      </c>
+      <c r="G5">
+        <v>0.1343283582089552</v>
+      </c>
+      <c r="H5">
+        <v>0.0708955223880597</v>
+      </c>
+      <c r="I5">
+        <v>0.02985074626865672</v>
+      </c>
+      <c r="J5">
+        <v>0.05597014925373135</v>
+      </c>
+      <c r="K5">
+        <v>0.03358208955223881</v>
+      </c>
+      <c r="L5">
+        <v>0.003731343283582089</v>
+      </c>
+      <c r="M5">
+        <v>0.01119402985074627</v>
+      </c>
+      <c r="N5">
+        <v>0.02611940298507463</v>
+      </c>
+      <c r="O5">
+        <v>0.02611940298507463</v>
+      </c>
+      <c r="P5">
+        <v>0.04104477611940299</v>
+      </c>
+      <c r="Q5">
+        <v>0.01865671641791045</v>
+      </c>
+      <c r="R5">
+        <v>0.003731343283582089</v>
+      </c>
+      <c r="S5">
+        <v>0.003731343283582089</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B6">
+        <v>0.1463282937365011</v>
+      </c>
+      <c r="C6">
+        <v>0.1128509719222462</v>
+      </c>
+      <c r="D6">
+        <v>0.1198704103671706</v>
+      </c>
+      <c r="E6">
+        <v>0.0755939524838013</v>
+      </c>
+      <c r="F6">
+        <v>0.0642548596112311</v>
+      </c>
+      <c r="G6">
+        <v>0.05291576673866091</v>
+      </c>
+      <c r="H6">
+        <v>0.1241900647948164</v>
+      </c>
+      <c r="I6">
+        <v>0.04157667386609071</v>
+      </c>
+      <c r="J6">
+        <v>0.07397408207343413</v>
+      </c>
+      <c r="K6">
+        <v>0.02213822894168466</v>
+      </c>
+      <c r="L6">
+        <v>0.002159827213822894</v>
+      </c>
+      <c r="M6">
+        <v>0.02105831533477322</v>
+      </c>
+      <c r="N6">
+        <v>0.04211663066954643</v>
+      </c>
+      <c r="O6">
+        <v>0.0620950323974082</v>
+      </c>
+      <c r="P6">
+        <v>0.01025917926565875</v>
+      </c>
+      <c r="Q6">
+        <v>0.02537796976241901</v>
+      </c>
+      <c r="R6">
+        <v>0.001079913606911447</v>
+      </c>
+      <c r="S6">
+        <v>0.002159827213822894</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B7">
+        <v>0.1705882352941177</v>
+      </c>
+      <c r="C7">
+        <v>0.1058823529411765</v>
+      </c>
+      <c r="D7">
+        <v>0.1184873949579832</v>
+      </c>
+      <c r="E7">
+        <v>0.09915966386554621</v>
+      </c>
+      <c r="F7">
+        <v>0.08487394957983194</v>
+      </c>
+      <c r="G7">
+        <v>0.1134453781512605</v>
+      </c>
+      <c r="H7">
+        <v>0.06722689075630252</v>
+      </c>
+      <c r="I7">
+        <v>0.05966386554621849</v>
+      </c>
+      <c r="J7">
+        <v>0.04705882352941176</v>
+      </c>
+      <c r="K7">
+        <v>0.03445378151260504</v>
+      </c>
+      <c r="M7">
+        <v>0.02436974789915966</v>
+      </c>
+      <c r="N7">
+        <v>0.02689075630252101</v>
+      </c>
+      <c r="O7">
+        <v>0.009243697478991597</v>
+      </c>
+      <c r="P7">
+        <v>0.01176470588235294</v>
+      </c>
+      <c r="Q7">
+        <v>0.0226890756302521</v>
+      </c>
+      <c r="R7">
+        <v>0.004201680672268907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B8">
+        <v>0.1798473282442748</v>
+      </c>
+      <c r="C8">
+        <v>0.09740458015267175</v>
+      </c>
+      <c r="D8">
+        <v>0.1105343511450382</v>
+      </c>
+      <c r="E8">
+        <v>0.09740458015267175</v>
+      </c>
+      <c r="F8">
+        <v>0.08152671755725191</v>
+      </c>
+      <c r="G8">
+        <v>0.09740458015267175</v>
+      </c>
+      <c r="H8">
+        <v>0.06625954198473283</v>
+      </c>
+      <c r="I8">
+        <v>0.06320610687022901</v>
+      </c>
+      <c r="J8">
+        <v>0.05404580152671756</v>
+      </c>
+      <c r="K8">
+        <v>0.0317557251908397</v>
+      </c>
+      <c r="L8">
+        <v>0.002748091603053435</v>
+      </c>
+      <c r="M8">
+        <v>0.01526717557251908</v>
+      </c>
+      <c r="N8">
+        <v>0.02809160305343511</v>
+      </c>
+      <c r="O8">
+        <v>0.0149618320610687</v>
+      </c>
+      <c r="P8">
+        <v>0.02106870229007634</v>
+      </c>
+      <c r="Q8">
+        <v>0.0283969465648855</v>
+      </c>
+      <c r="R8">
+        <v>0.009465648854961832</v>
+      </c>
+      <c r="S8">
+        <v>0.0006106870229007634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B9">
+        <v>0.1488946684005202</v>
+      </c>
+      <c r="C9">
+        <v>0.1202860858257477</v>
+      </c>
+      <c r="D9">
+        <v>0.1202860858257477</v>
+      </c>
+      <c r="E9">
+        <v>0.09622886866059818</v>
+      </c>
+      <c r="F9">
+        <v>0.06241872561768531</v>
+      </c>
+      <c r="G9">
+        <v>0.1040312093628088</v>
+      </c>
+      <c r="H9">
+        <v>0.0799739921976593</v>
+      </c>
+      <c r="I9">
+        <v>0.05786736020806242</v>
+      </c>
+      <c r="J9">
+        <v>0.05981794538361508</v>
+      </c>
+      <c r="K9">
+        <v>0.04031209362808843</v>
+      </c>
+      <c r="L9">
+        <v>0.001300390117035111</v>
+      </c>
+      <c r="M9">
+        <v>0.02015604681404421</v>
+      </c>
+      <c r="N9">
+        <v>0.03120936280884265</v>
+      </c>
+      <c r="O9">
+        <v>0.007802340702210663</v>
+      </c>
+      <c r="P9">
+        <v>0.01365409622886866</v>
+      </c>
+      <c r="Q9">
+        <v>0.03250975292587777</v>
+      </c>
+      <c r="R9">
+        <v>0.001300390117035111</v>
+      </c>
+      <c r="S9">
+        <v>0.001950585175552666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
@@ -1157,6 +1648,228 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>271</v>
+      </c>
+      <c r="C2">
+        <v>0.1463282937365011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>230</v>
+      </c>
+      <c r="C3">
+        <v>0.1241900647948164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>222</v>
+      </c>
+      <c r="C4">
+        <v>0.1198704103671706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>209</v>
+      </c>
+      <c r="C5">
+        <v>0.1128509719222462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>140</v>
+      </c>
+      <c r="C6">
+        <v>0.0755939524838013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>137</v>
+      </c>
+      <c r="C7">
+        <v>0.07397408207343413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>119</v>
+      </c>
+      <c r="C8">
+        <v>0.0642548596112311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>115</v>
+      </c>
+      <c r="C9">
+        <v>0.0620950323974082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>98</v>
+      </c>
+      <c r="C10">
+        <v>0.05291576673866091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>78</v>
+      </c>
+      <c r="C11">
+        <v>0.04211663066954643</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>77</v>
+      </c>
+      <c r="C12">
+        <v>0.04157667386609071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <v>0.02537796976241901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>0.02213822894168466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>0.02105831533477322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>0.01025917926565875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>0.002159827213822894</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>0.002159827213822894</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0.001079913606911447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1348,228 +2061,6 @@
       </c>
       <c r="C17">
         <v>0.004201680672268907</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>589</v>
-      </c>
-      <c r="C2">
-        <v>0.1798473282442748</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>362</v>
-      </c>
-      <c r="C3">
-        <v>0.1105343511450382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>319</v>
-      </c>
-      <c r="C4">
-        <v>0.09740458015267175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>319</v>
-      </c>
-      <c r="C5">
-        <v>0.09740458015267175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>319</v>
-      </c>
-      <c r="C6">
-        <v>0.09740458015267175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>267</v>
-      </c>
-      <c r="C7">
-        <v>0.08152671755725191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>217</v>
-      </c>
-      <c r="C8">
-        <v>0.06625954198473283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>207</v>
-      </c>
-      <c r="C9">
-        <v>0.06320610687022901</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>177</v>
-      </c>
-      <c r="C10">
-        <v>0.05404580152671756</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>104</v>
-      </c>
-      <c r="C11">
-        <v>0.0317557251908397</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>93</v>
-      </c>
-      <c r="C12">
-        <v>0.0283969465648855</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>92</v>
-      </c>
-      <c r="C13">
-        <v>0.02809160305343511</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>69</v>
-      </c>
-      <c r="C14">
-        <v>0.02106870229007634</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>50</v>
-      </c>
-      <c r="C15">
-        <v>0.01526717557251908</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>49</v>
-      </c>
-      <c r="C16">
-        <v>0.0149618320610687</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>31</v>
-      </c>
-      <c r="C17">
-        <v>0.009465648854961832</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>0.002748091603053435</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>0.0006106870229007634</v>
       </c>
     </row>
   </sheetData>
@@ -1601,43 +2092,43 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>229</v>
+        <v>589</v>
       </c>
       <c r="C2">
-        <v>0.1488946684005202</v>
+        <v>0.1798473282442748</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>185</v>
+        <v>362</v>
       </c>
       <c r="C3">
-        <v>0.1202860858257477</v>
+        <v>0.1105343511450382</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>185</v>
+        <v>319</v>
       </c>
       <c r="C4">
-        <v>0.1202860858257477</v>
+        <v>0.09740458015267175</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>160</v>
+        <v>319</v>
       </c>
       <c r="C5">
-        <v>0.1040312093628088</v>
+        <v>0.09740458015267175</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1645,54 +2136,54 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="C6">
-        <v>0.09622886866059818</v>
+        <v>0.09740458015267175</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>123</v>
+        <v>267</v>
       </c>
       <c r="C7">
-        <v>0.0799739921976593</v>
+        <v>0.08152671755725191</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>96</v>
+        <v>217</v>
       </c>
       <c r="C8">
-        <v>0.06241872561768531</v>
+        <v>0.06625954198473283</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="C9">
-        <v>0.05981794538361508</v>
+        <v>0.06320610687022901</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="C10">
-        <v>0.05786736020806242</v>
+        <v>0.05404580152671756</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1700,10 +2191,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="C11">
-        <v>0.04031209362808843</v>
+        <v>0.0317557251908397</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1711,10 +2202,10 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="C12">
-        <v>0.03250975292587777</v>
+        <v>0.0283969465648855</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1722,32 +2213,32 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C13">
-        <v>0.03120936280884265</v>
+        <v>0.02809160305343511</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="C14">
-        <v>0.02015604681404421</v>
+        <v>0.02106870229007634</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C15">
-        <v>0.01365409622886866</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1755,43 +2246,43 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C16">
-        <v>0.007802340702210663</v>
+        <v>0.0149618320610687</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C17">
-        <v>0.001950585175552666</v>
+        <v>0.009465648854961832</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>0.001300390117035111</v>
+        <v>0.002748091603053435</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19">
-        <v>0.001300390117035111</v>
+        <v>0.0006106870229007634</v>
       </c>
     </row>
   </sheetData>
@@ -1801,7 +2292,229 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>229</v>
+      </c>
+      <c r="C2">
+        <v>0.1488946684005202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>185</v>
+      </c>
+      <c r="C3">
+        <v>0.1202860858257477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>185</v>
+      </c>
+      <c r="C4">
+        <v>0.1202860858257477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>160</v>
+      </c>
+      <c r="C5">
+        <v>0.1040312093628088</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>148</v>
+      </c>
+      <c r="C6">
+        <v>0.09622886866059818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>123</v>
+      </c>
+      <c r="C7">
+        <v>0.0799739921976593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>96</v>
+      </c>
+      <c r="C8">
+        <v>0.06241872561768531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>92</v>
+      </c>
+      <c r="C9">
+        <v>0.05981794538361508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>89</v>
+      </c>
+      <c r="C10">
+        <v>0.05786736020806242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>62</v>
+      </c>
+      <c r="C11">
+        <v>0.04031209362808843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>0.03250975292587777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>48</v>
+      </c>
+      <c r="C13">
+        <v>0.03120936280884265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>0.02015604681404421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>0.01365409622886866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>0.007802340702210663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>0.001950585175552666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>0.001300390117035111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0.001300390117035111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2056,604 +2769,232 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B6">
-        <v>203</v>
+        <v>271</v>
       </c>
       <c r="C6">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="D6">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="E6">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="F6">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="G6">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="H6">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="I6">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J6">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="K6">
         <v>41</v>
       </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
       <c r="M6">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N6">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="O6">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="P6">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q6">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B7">
-        <v>589</v>
+        <v>203</v>
       </c>
       <c r="C7">
-        <v>319</v>
+        <v>126</v>
       </c>
       <c r="D7">
-        <v>362</v>
+        <v>141</v>
       </c>
       <c r="E7">
-        <v>319</v>
+        <v>118</v>
       </c>
       <c r="F7">
-        <v>267</v>
+        <v>101</v>
       </c>
       <c r="G7">
-        <v>319</v>
+        <v>135</v>
       </c>
       <c r="H7">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="I7">
-        <v>207</v>
+        <v>71</v>
       </c>
       <c r="J7">
-        <v>177</v>
+        <v>56</v>
       </c>
       <c r="K7">
-        <v>104</v>
-      </c>
-      <c r="L7">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="N7">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="O7">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P7">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="Q7">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="R7">
-        <v>31</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B8">
+        <v>589</v>
+      </c>
+      <c r="C8">
+        <v>319</v>
+      </c>
+      <c r="D8">
+        <v>362</v>
+      </c>
+      <c r="E8">
+        <v>319</v>
+      </c>
+      <c r="F8">
+        <v>267</v>
+      </c>
+      <c r="G8">
+        <v>319</v>
+      </c>
+      <c r="H8">
+        <v>217</v>
+      </c>
+      <c r="I8">
+        <v>207</v>
+      </c>
+      <c r="J8">
+        <v>177</v>
+      </c>
+      <c r="K8">
+        <v>104</v>
+      </c>
+      <c r="L8">
+        <v>9</v>
+      </c>
+      <c r="M8">
+        <v>50</v>
+      </c>
+      <c r="N8">
+        <v>92</v>
+      </c>
+      <c r="O8">
+        <v>49</v>
+      </c>
+      <c r="P8">
+        <v>69</v>
+      </c>
+      <c r="Q8">
+        <v>93</v>
+      </c>
+      <c r="R8">
+        <v>31</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1">
         <v>2018</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>229</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>185</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>185</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>148</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>96</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>160</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>123</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>89</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>92</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>62</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>2</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>31</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <v>48</v>
       </c>
-      <c r="O8">
+      <c r="O9">
         <v>12</v>
       </c>
-      <c r="P8">
+      <c r="P9">
         <v>21</v>
       </c>
-      <c r="Q8">
+      <c r="Q9">
         <v>50</v>
       </c>
-      <c r="R8">
+      <c r="R9">
         <v>2</v>
       </c>
-      <c r="S8">
+      <c r="S9">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B2">
-        <v>0.1787072243346008</v>
-      </c>
-      <c r="C2">
-        <v>0.1452471482889734</v>
-      </c>
-      <c r="D2">
-        <v>0.1079847908745247</v>
-      </c>
-      <c r="E2">
-        <v>0.07604562737642585</v>
-      </c>
-      <c r="F2">
-        <v>0.06996197718631179</v>
-      </c>
-      <c r="G2">
-        <v>0.06083650190114068</v>
-      </c>
-      <c r="H2">
-        <v>0.05399239543726236</v>
-      </c>
-      <c r="I2">
-        <v>0.05247148288973384</v>
-      </c>
-      <c r="J2">
-        <v>0.04942965779467681</v>
-      </c>
-      <c r="K2">
-        <v>0.03954372623574144</v>
-      </c>
-      <c r="L2">
-        <v>0.03574144486692015</v>
-      </c>
-      <c r="M2">
-        <v>0.03193916349809886</v>
-      </c>
-      <c r="N2">
-        <v>0.02965779467680608</v>
-      </c>
-      <c r="O2">
-        <v>0.02813688212927757</v>
-      </c>
-      <c r="P2">
-        <v>0.02053231939163498</v>
-      </c>
-      <c r="Q2">
-        <v>0.01977186311787072</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B3">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="C3">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="G3">
-        <v>0.5</v>
-      </c>
-      <c r="N3">
-        <v>0.1666666666666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B4">
-        <v>0.1760722347629797</v>
-      </c>
-      <c r="C4">
-        <v>0.1309255079006772</v>
-      </c>
-      <c r="D4">
-        <v>0.09932279909706546</v>
-      </c>
-      <c r="E4">
-        <v>0.08126410835214447</v>
-      </c>
-      <c r="F4">
-        <v>0.0564334085778781</v>
-      </c>
-      <c r="G4">
-        <v>0.1060948081264108</v>
-      </c>
-      <c r="H4">
-        <v>0.04514672686230248</v>
-      </c>
-      <c r="I4">
-        <v>0.05869074492099323</v>
-      </c>
-      <c r="J4">
-        <v>0.06320541760722348</v>
-      </c>
-      <c r="K4">
-        <v>0.04288939051918736</v>
-      </c>
-      <c r="L4">
-        <v>0.002257336343115124</v>
-      </c>
-      <c r="M4">
-        <v>0.02934537246049661</v>
-      </c>
-      <c r="N4">
-        <v>0.03160270880361174</v>
-      </c>
-      <c r="O4">
-        <v>0.03160270880361174</v>
-      </c>
-      <c r="P4">
-        <v>0.02031602708803612</v>
-      </c>
-      <c r="Q4">
-        <v>0.009029345372460496</v>
-      </c>
-      <c r="R4">
-        <v>0.009029345372460496</v>
-      </c>
-      <c r="S4">
-        <v>0.006772009029345372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B5">
-        <v>0.1492537313432836</v>
-      </c>
-      <c r="C5">
-        <v>0.1305970149253731</v>
-      </c>
-      <c r="D5">
-        <v>0.1119402985074627</v>
-      </c>
-      <c r="E5">
-        <v>0.09701492537313433</v>
-      </c>
-      <c r="F5">
-        <v>0.05223880597014925</v>
-      </c>
-      <c r="G5">
-        <v>0.1343283582089552</v>
-      </c>
-      <c r="H5">
-        <v>0.0708955223880597</v>
-      </c>
-      <c r="I5">
-        <v>0.02985074626865672</v>
-      </c>
-      <c r="J5">
-        <v>0.05597014925373135</v>
-      </c>
-      <c r="K5">
-        <v>0.03358208955223881</v>
-      </c>
-      <c r="L5">
-        <v>0.003731343283582089</v>
-      </c>
-      <c r="M5">
-        <v>0.01119402985074627</v>
-      </c>
-      <c r="N5">
-        <v>0.02611940298507463</v>
-      </c>
-      <c r="O5">
-        <v>0.02611940298507463</v>
-      </c>
-      <c r="P5">
-        <v>0.04104477611940299</v>
-      </c>
-      <c r="Q5">
-        <v>0.01865671641791045</v>
-      </c>
-      <c r="R5">
-        <v>0.003731343283582089</v>
-      </c>
-      <c r="S5">
-        <v>0.003731343283582089</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B6">
-        <v>0.1705882352941177</v>
-      </c>
-      <c r="C6">
-        <v>0.1058823529411765</v>
-      </c>
-      <c r="D6">
-        <v>0.1184873949579832</v>
-      </c>
-      <c r="E6">
-        <v>0.09915966386554621</v>
-      </c>
-      <c r="F6">
-        <v>0.08487394957983194</v>
-      </c>
-      <c r="G6">
-        <v>0.1134453781512605</v>
-      </c>
-      <c r="H6">
-        <v>0.06722689075630252</v>
-      </c>
-      <c r="I6">
-        <v>0.05966386554621849</v>
-      </c>
-      <c r="J6">
-        <v>0.04705882352941176</v>
-      </c>
-      <c r="K6">
-        <v>0.03445378151260504</v>
-      </c>
-      <c r="M6">
-        <v>0.02436974789915966</v>
-      </c>
-      <c r="N6">
-        <v>0.02689075630252101</v>
-      </c>
-      <c r="O6">
-        <v>0.009243697478991597</v>
-      </c>
-      <c r="P6">
-        <v>0.01176470588235294</v>
-      </c>
-      <c r="Q6">
-        <v>0.0226890756302521</v>
-      </c>
-      <c r="R6">
-        <v>0.004201680672268907</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B7">
-        <v>0.1798473282442748</v>
-      </c>
-      <c r="C7">
-        <v>0.09740458015267175</v>
-      </c>
-      <c r="D7">
-        <v>0.1105343511450382</v>
-      </c>
-      <c r="E7">
-        <v>0.09740458015267175</v>
-      </c>
-      <c r="F7">
-        <v>0.08152671755725191</v>
-      </c>
-      <c r="G7">
-        <v>0.09740458015267175</v>
-      </c>
-      <c r="H7">
-        <v>0.06625954198473283</v>
-      </c>
-      <c r="I7">
-        <v>0.06320610687022901</v>
-      </c>
-      <c r="J7">
-        <v>0.05404580152671756</v>
-      </c>
-      <c r="K7">
-        <v>0.0317557251908397</v>
-      </c>
-      <c r="L7">
-        <v>0.002748091603053435</v>
-      </c>
-      <c r="M7">
-        <v>0.01526717557251908</v>
-      </c>
-      <c r="N7">
-        <v>0.02809160305343511</v>
-      </c>
-      <c r="O7">
-        <v>0.0149618320610687</v>
-      </c>
-      <c r="P7">
-        <v>0.02106870229007634</v>
-      </c>
-      <c r="Q7">
-        <v>0.0283969465648855</v>
-      </c>
-      <c r="R7">
-        <v>0.009465648854961832</v>
-      </c>
-      <c r="S7">
-        <v>0.0006106870229007634</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B8">
-        <v>0.1488946684005202</v>
-      </c>
-      <c r="C8">
-        <v>0.1202860858257477</v>
-      </c>
-      <c r="D8">
-        <v>0.1202860858257477</v>
-      </c>
-      <c r="E8">
-        <v>0.09622886866059818</v>
-      </c>
-      <c r="F8">
-        <v>0.06241872561768531</v>
-      </c>
-      <c r="G8">
-        <v>0.1040312093628088</v>
-      </c>
-      <c r="H8">
-        <v>0.0799739921976593</v>
-      </c>
-      <c r="I8">
-        <v>0.05786736020806242</v>
-      </c>
-      <c r="J8">
-        <v>0.05981794538361508</v>
-      </c>
-      <c r="K8">
-        <v>0.04031209362808843</v>
-      </c>
-      <c r="L8">
-        <v>0.001300390117035111</v>
-      </c>
-      <c r="M8">
-        <v>0.02015604681404421</v>
-      </c>
-      <c r="N8">
-        <v>0.03120936280884265</v>
-      </c>
-      <c r="O8">
-        <v>0.007802340702210663</v>
-      </c>
-      <c r="P8">
-        <v>0.01365409622886866</v>
-      </c>
-      <c r="Q8">
-        <v>0.03250975292587777</v>
-      </c>
-      <c r="R8">
-        <v>0.001300390117035111</v>
-      </c>
-      <c r="S8">
-        <v>0.001950585175552666</v>
       </c>
     </row>
   </sheetData>
